--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_avg_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_avg_metrics_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>faulty_predictions_numb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>average_f1_macro</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>average_accuracy</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>numeric_id</t>
         </is>
@@ -473,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[np.float64(0.24841576224975437)]</t>
+          <t>[np.float64(0.248)]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.30158730158730157]</t>
+          <t>[0.302]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,24 +497,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2484157622497544</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.248</v>
       </c>
       <c r="G2" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[np.float64(0.2709805086794071)]</t>
+          <t>[np.float64(0.255), np.float64(0.271)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.3492063492063492]</t>
+          <t>[0.333, 0.349]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,28 +527,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2709805086794071</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.263</v>
       </c>
       <c r="G3" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[np.float64(0.3015044268370211), np.float64(0.2445777736475411)]</t>
+          <t>[np.float64(0.397), np.float64(0.394)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.368, 0.3492063492063492]</t>
+          <t>[0.452, 0.46]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,28 +561,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2730411002422811</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3586031746031746</v>
+        <v>0.3955</v>
       </c>
       <c r="G4" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[np.float64(0.2552355174065701), np.float64(0.27132034632034635)]</t>
+          <t>[np.float64(0.302), np.float64(0.245)]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0.3333333333333333, 0.3492063492063492]</t>
+          <t>[0.368, 0.349]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,28 +595,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2632779318634582</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.2735</v>
       </c>
       <c r="G5" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[np.float64(0.3965021641666608), np.float64(0.3935531594233977)]</t>
+          <t>[np.float64(0.286), np.float64(0.244)]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0.4523809523809524, 0.4603174603174603]</t>
+          <t>[0.357, 0.349]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,28 +629,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3950276617950292</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4563492063492063</v>
+        <v>0.265</v>
       </c>
       <c r="G6" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[np.float64(0.37385164350404987), np.float64(0.3801909798023466)]</t>
+          <t>[np.float64(0.267), np.float64(0.283)]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0.4444444444444444, 0.4523809523809524]</t>
+          <t>[0.365, 0.373]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,28 +663,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3770213116531982</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4484126984126984</v>
+        <v>0.275</v>
       </c>
       <c r="G7" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[np.float64(0.2672169123055697), np.float64(0.28250406298319014)]</t>
+          <t>[np.float64(0.374), np.float64(0.38)]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0.36507936507936506, 0.373015873015873]</t>
+          <t>[0.444, 0.452]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,23 +697,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2748604876443799</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3690476190476191</v>
+        <v>0.377</v>
       </c>
       <c r="G8" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[np.float64(0.33298312798312796), np.float64(0.3591390932300023)]</t>
+          <t>[np.float64(0.333), np.float64(0.359)]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -709,24 +735,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3460611106065651</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.408</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[np.float64(0.33525532954735465)]</t>
+          <t>[np.float64(0.335)]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0.38095238095238093]</t>
+          <t>[0.381]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -740,55 +769,61 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3352553295473547</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.335</v>
       </c>
       <c r="G10" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[np.float64(0.3052841739818263)]</t>
+          <t>[np.float64(0.329), np.float64(0.341)]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[0.3412698412698413]</t>
+          <t>[0.413, 0.421]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3052841739818263</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.335</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0.417</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[np.float64(0.2909343924049807), np.float64(0.29932045799607837)]</t>
+          <t>[np.float64(0.305)]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0.3888888888888889, 0.3968253968253968]</t>
+          <t>[0.341]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -798,28 +833,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2951274252005295</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.305</v>
       </c>
       <c r="G12" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[np.float64(0.35837993051951866), np.float64(0.33999833499833504)]</t>
+          <t>[np.float64(0.387), np.float64(0.371)]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0.448, 0.44]</t>
+          <t>[0.452, 0.444]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -829,28 +867,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3491891327589268</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.444</v>
+        <v>0.379</v>
       </c>
       <c r="G13" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[np.float64(0.38721272645388427), np.float64(0.37091296933194157)]</t>
+          <t>[np.float64(0.291), np.float64(0.299)]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[0.4523809523809524, 0.4444444444444444]</t>
+          <t>[0.389, 0.397]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -860,90 +901,99 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3790628478929129</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4484126984126984</v>
+        <v>0.295</v>
       </c>
       <c r="G14" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[np.float64(0.2988000388401458), np.float64(0.28313630813630813)]</t>
+          <t>[np.float64(0.358), np.float64(0.34)]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0.40476190476190477, 0.3888888888888889]</t>
+          <t>[0.448, 0.44]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.290968173488227</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3968253968253969</v>
+        <v>0.349</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>0.444</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[np.float64(0.3045727426312211)]</t>
+          <t>[np.float64(0.367), np.float64(0.355)]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[0.3412698412698413]</t>
+          <t>[0.464, 0.464]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3045727426312211</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.361</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0.464</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[np.float64(0.31794741828811174), np.float64(0.3458705202979011)]</t>
+          <t>[np.float64(0.299), np.float64(0.283)]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[0.42857142857142855, 0.4444444444444444]</t>
+          <t>[0.405, 0.389]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -953,28 +1003,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3319089692930064</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4365079365079365</v>
+        <v>0.291</v>
       </c>
       <c r="G17" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[np.float64(0.3134593432980059), np.float64(0.30533158166848)]</t>
+          <t>[np.float64(0.305)]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[0.42063492063492064, 0.42857142857142855]</t>
+          <t>[0.341]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -984,64 +1037,70 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.309395462483243</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4246031746031746</v>
+        <v>0.305</v>
       </c>
       <c r="G18" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[np.float64(0.33261719228354897), np.float64(0.35838175490581914)]</t>
+          <t>[np.float64(0.326), np.float64(0.349)]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[0.4126984126984127, 0.42857142857142855]</t>
+          <t>[0.413, 0.452]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.345499473594684</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4206349206349206</v>
+        <v>0.3375</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>0.4325</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[np.float64(0.39831896923791094), np.float64(0.39897330833159705)]</t>
+          <t>[np.float64(0.313), np.float64(0.305)]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[0.49193548387096775, 0.4878048780487805]</t>
+          <t>[0.421, 0.429]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1050,55 +1109,61 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.398646138784754</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4898701809598741</v>
+        <v>0.309</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>0.425</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[np.float64(0.283404865557272)]</t>
+          <t>[np.float64(0.318), np.float64(0.346)]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0.3412698412698413]</t>
+          <t>[0.429, 0.444]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.283404865557272</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.332</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>0.4365</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[np.float64(0.2730138290240592), np.float64(0.2921566441688393)]</t>
+          <t>[np.float64(0.398), np.float64(0.399)]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[0.35714285714285715, 0.373015873015873]</t>
+          <t>[0.492, 0.488]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1108,126 +1173,138 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2825852365964492</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.3985</v>
       </c>
       <c r="G22" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[np.float64(0.3123050263107961)]</t>
+          <t>[np.float64(0.333), np.float64(0.358)]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0.4126984126984127]</t>
+          <t>[0.413, 0.429]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3123050263107961</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.3455</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>0.421</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[np.float64(0.31863275613275616), np.float64(0.35614298805294126)]</t>
+          <t>[np.float64(0.283)]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[0.46825396825396826, 0.488]</t>
+          <t>[0.341]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3373878720928487</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4781269841269841</v>
+        <v>0.283</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>0.341</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[np.float64(0.32783465869590267), np.float64(0.3329912147305001)]</t>
+          <t>[np.float64(0.358), np.float64(0.372)]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[0.45161290322580644, 0.448]</t>
+          <t>[0.421, 0.437]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3304129367132014</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4498064516129032</v>
+        <v>0.365</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>0.429</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[np.float64(0.25454840701020665), np.float64(0.20407496543860182)]</t>
+          <t>[np.float64(0.273), np.float64(0.292)]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[0.35714285714285715, 0.29365079365079366]</t>
+          <t>[0.357, 0.373]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1236,91 +1313,100 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2293116862244042</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3253968253968254</v>
+        <v>0.2825</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>0.365</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[np.float64(0.3432926669290306), np.float64(0.3534088386361114)]</t>
+          <t>[np.float64(0.328), np.float64(0.333)]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[0.46825396825396826, 0.48]</t>
+          <t>[0.452, 0.448]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.348350752782571</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4741269841269841</v>
+        <v>0.3305</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>0.45</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[np.float64(0.31899060535424173), np.float64(0.30172218165741493)]</t>
+          <t>[np.float64(0.319), np.float64(0.356)]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[0.4274193548387097, 0.43089430894308944]</t>
+          <t>[0.468, 0.488]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3103563935058283</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4291568318908996</v>
+        <v>0.3375</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>0.478</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[np.float64(0.21112736554676967), np.float64(0.17909998620719778)]</t>
+          <t>[np.float64(0.255), np.float64(0.204)]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[0.328, 0.312]</t>
+          <t>[0.357, 0.294]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1329,91 +1415,100 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1951136758769837</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.32</v>
+        <v>0.2295</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>0.3255</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[np.float64(0.31384254743938533)]</t>
+          <t>[np.float64(0.264), np.float64(0.28)]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[0.373015873015873]</t>
+          <t>[0.373, 0.389]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.3138425474393853</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.373015873015873</v>
+        <v>0.272</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>0.381</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[np.float64(0.3123733058541671), np.float64(0.30104600786418967)]</t>
+          <t>[np.float64(0.312)]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[0.44, 0.416]</t>
+          <t>[0.413]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.3067096568591784</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.428</v>
+        <v>0.312</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>0.413</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[np.float64(0.16384801459647666), np.float64(0.14875274585646558)]</t>
+          <t>[np.float64(0.211), np.float64(0.179)]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[0.264, 0.30158730158730157]</t>
+          <t>[0.328, 0.312]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1422,91 +1517,100 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1563003802264711</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2827936507936508</v>
+        <v>0.195</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>0.32</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[np.float64(0.3072746204135171)]</t>
+          <t>[np.float64(0.293), np.float64(0.281)]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[0.38095238095238093]</t>
+          <t>[0.413, 0.381]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.3072746204135171</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.287</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>0.397</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[np.float64(0.3686912884676101), np.float64(0.34599401909268646)]</t>
+          <t>[np.float64(0.314)]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[0.4634146341463415, 0.47107438016528924]</t>
+          <t>[0.373]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.3573426537801483</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4672445071558153</v>
+        <v>0.314</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>0.373</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[np.float64(0.3612919570537047), np.float64(0.33869822701645974)]</t>
+          <t>[np.float64(0.319), np.float64(0.302)]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[0.45528455284552843, 0.45]</t>
+          <t>[0.427, 0.431]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1515,60 +1619,66 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.3499950920350822</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4526422764227642</v>
+        <v>0.3105</v>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>0.429</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[np.float64(0.1676984872033738), np.float64(0.16923215790370308)]</t>
+          <t>[np.float64(0.343), np.float64(0.353)]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[0.304, 0.30952380952380953]</t>
+          <t>[0.468, 0.48]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1684653225535384</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3067619047619048</v>
+        <v>0.348</v>
       </c>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>0.474</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[np.float64(0.3194982484132498)]</t>
+          <t>[np.float64(0.307)]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0.3888888888888889]</t>
+          <t>[0.381]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1577,60 +1687,66 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3194982484132498</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.307</v>
       </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>0.381</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[np.float64(0.2839621233443355), np.float64(0.2886714636714637)]</t>
+          <t>[np.float64(0.369), np.float64(0.346)]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[0.4146341463414634, 0.4274193548387097]</t>
+          <t>[0.463, 0.471]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2863167935078996</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4210267505900865</v>
+        <v>0.3575</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>0.467</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[np.float64(0.29867191631897516), np.float64(0.2690363832933492)]</t>
+          <t>[np.float64(0.312), np.float64(0.301)]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0.4, 0.3902439024390244]</t>
+          <t>[0.44, 0.416]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1639,60 +1755,66 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2838541498061622</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3951219512195122</v>
+        <v>0.3065</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>0.428</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[np.float64(0.3152304217521609), np.float64(0.3301204198180843)]</t>
+          <t>[np.float64(0.28), np.float64(0.282)]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[0.43333333333333335, 0.4344262295081967]</t>
+          <t>[0.389, 0.389]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3226754207851226</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.433879781420765</v>
+        <v>0.281</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>0.389</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[np.float64(0.1284667161188203), np.float64(0.13178656298657881)]</t>
+          <t>[np.float64(0.164), np.float64(0.149)]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[0.248, 0.25396825396825395]</t>
+          <t>[0.264, 0.302]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1701,60 +1823,66 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1301266395526995</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.250984126984127</v>
+        <v>0.1565</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>0.283</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[np.float64(0.2510921209427571)]</t>
+          <t>[np.float64(0.361), np.float64(0.339)]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[0.3492063492063492]</t>
+          <t>[0.455, 0.45]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2510921209427571</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.35</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>0.4525</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[np.float64(0.18015873015873016), np.float64(0.10537918871252204)]</t>
+          <t>[np.float64(0.168), np.float64(0.169)]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[0.25, 0.23076923076923078]</t>
+          <t>[0.304, 0.31]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1763,167 +1891,559 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1427689594356261</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.1685</v>
       </c>
       <c r="G43" t="n">
-        <v>11</v>
+        <v>0.307</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[np.float64(0.24082593775029817), np.float64(0.277190180056394)]</t>
+          <t>[np.float64(0.284), np.float64(0.289)]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[0.35714285714285715, 0.36507936507936506]</t>
+          <t>[0.415, 0.427]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2590080589033461</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2865</v>
       </c>
       <c r="G44" t="n">
-        <v>11</v>
+        <v>0.421</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[np.float64(0.2596436391890937), np.float64(0.2836834882289428)]</t>
+          <t>[np.float64(0.319)]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[0.3492063492063492, 0.36507936507936506]</t>
+          <t>[0.389]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2716635637090182</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.319</v>
       </c>
       <c r="G45" t="n">
-        <v>11</v>
+        <v>0.389</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[np.float64(0.246457708957709), np.float64(0.25504590806774874)]</t>
+          <t>[np.float64(0.263), np.float64(0.266)]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[0.3492063492063492, 0.35714285714285715]</t>
+          <t>[0.397, 0.413]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2507518085127289</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3531746031746031</v>
+        <v>0.2645</v>
       </c>
       <c r="G46" t="n">
-        <v>12</v>
+        <v>0.405</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[np.float64(0.21960425937698663), np.float64(0.24148650122487328)]</t>
+          <t>[np.float64(0.299), np.float64(0.269)]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[0.31746031746031744, 0.3333333333333333]</t>
+          <t>[0.4, 0.39]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.23054538030093</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3253968253968254</v>
+        <v>0.284</v>
       </c>
       <c r="G47" t="n">
-        <v>12</v>
+        <v>0.395</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[np.float64(0.28083749286957843), np.float64(0.27609316609316614)]</t>
+          <t>[np.float64(0.128), np.float64(0.132)]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[0.35714285714285715, 0.36507936507936506]</t>
+          <t>[0.248, 0.254]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>[np.float64(0.269), np.float64(0.269)]</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[0.373, 0.381]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>[np.float64(0.315), np.float64(0.33)]</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[0.433, 0.434]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3225</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.4335</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>[np.float64(0.251)]</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[0.349]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-tuning</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>[np.float64(0.18), np.float64(0.105)]</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[0.25, 0.231]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1425</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.2405</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>[np.float64(0.26), np.float64(0.284)]</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[0.349, 0.365]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>[np.float64(0.252), np.float64(0.256)]</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[0.365, 0.365]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H54" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>[np.float64(0.241), np.float64(0.277)]</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[0.357, 0.365]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="H55" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>[np.float64(0.281), np.float64(0.276)]</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[0.357, 0.365]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>promptN12</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>0.2784653294813723</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2785</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="H56" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>[np.float64(0.293), np.float64(0.26)]</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[0.413, 0.381]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2765</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="H57" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>[np.float64(0.22), np.float64(0.241)]</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[0.317, 0.333]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2305</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>[np.float64(0.246), np.float64(0.255)]</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[0.349, 0.357]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2505</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="H59" t="n">
         <v>12</v>
       </c>
     </row>

--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_avg_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_avg_metrics_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>faulty_predictions_numb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>prompt_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>faulty_predictions_numb</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[np.float64(0.248)]</t>
+          <t>[np.float64(0.255), np.float64(0.271)]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.302]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>[0.333, 0.349]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>promptN01</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>0.248</v>
+        <v>0.263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.302</v>
+        <v>0.341</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[np.float64(0.255), np.float64(0.271)]</t>
+          <t>[np.float64(0.352), np.float64(0.248)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.333, 0.349]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+          <t>[0.421, 0.302]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>promptN01</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>0.263</v>
+        <v>0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.341</v>
+        <v>0.3615</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -554,18 +554,18 @@
           <t>[0.452, 0.46]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>promptN01</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0.3955</v>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0.368, 0.349]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+          <t>[0.365, 0.349]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>promptN01</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>gemini-1.5-pro</t>
         </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.2735</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3585</v>
+        <v>0.357</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -622,18 +622,18 @@
           <t>[0.357, 0.349]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>promptN01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>gemini-2.0-flash-exp</t>
         </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.265</v>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[np.float64(0.267), np.float64(0.283)]</t>
+          <t>[np.float64(0.333), np.float64(0.359)]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0.365, 0.373]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+          <t>[0.397, 0.413]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>promptN02</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>0.275</v>
+        <v>0.346</v>
       </c>
       <c r="G7" t="n">
-        <v>0.369</v>
+        <v>0.405</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -690,18 +690,18 @@
           <t>[0.444, 0.452]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>promptN02</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.377</v>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[np.float64(0.333), np.float64(0.359)]</t>
+          <t>[np.float64(0.267), np.float64(0.283)]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0.4, 0.416]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>[0.365, 0.373]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>promptN02</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>0.346</v>
+        <v>0.275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.408</v>
+        <v>0.369</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[np.float64(0.335)]</t>
+          <t>[np.float64(0.289), np.float64(0.335)]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0.381]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>[0.365, 0.381]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>promptN02</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>0.335</v>
+        <v>0.312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.381</v>
+        <v>0.373</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -792,18 +792,18 @@
           <t>[0.413, 0.421]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>promptN02</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>gemini-2.0-flash-exp</t>
         </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0.335</v>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[np.float64(0.305)]</t>
+          <t>[np.float64(0.291), np.float64(0.299)]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0.341]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>[0.389, 0.397]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>promptN03</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>0.305</v>
+        <v>0.295</v>
       </c>
       <c r="G12" t="n">
-        <v>0.341</v>
+        <v>0.393</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[np.float64(0.387), np.float64(0.371)]</t>
+          <t>[np.float64(0.358), np.float64(0.34)]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0.452, 0.444]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+          <t>[0.444, 0.437]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>promptN03</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>claude-3-5-sonnet-20241022</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>0.379</v>
+        <v>0.349</v>
       </c>
       <c r="G13" t="n">
-        <v>0.448</v>
+        <v>0.4405</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[np.float64(0.291), np.float64(0.299)]</t>
+          <t>[np.float64(0.367), np.float64(0.355)]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[0.389, 0.397]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>[0.46, 0.46]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>promptN03</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>0.295</v>
+        <v>0.361</v>
       </c>
       <c r="G14" t="n">
-        <v>0.393</v>
+        <v>0.46</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[np.float64(0.358), np.float64(0.34)]</t>
+          <t>[np.float64(0.387), np.float64(0.371)]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0.448, 0.44]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+          <t>[0.452, 0.444]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>promptN03</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>0.349</v>
+        <v>0.379</v>
       </c>
       <c r="G15" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[np.float64(0.367), np.float64(0.355)]</t>
+          <t>[np.float64(0.305), np.float64(0.265)]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[0.464, 0.464]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+          <t>[0.341, 0.349]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>promptN03</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>0.361</v>
+        <v>0.285</v>
       </c>
       <c r="G16" t="n">
-        <v>0.464</v>
+        <v>0.345</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -996,18 +996,18 @@
           <t>[0.405, 0.389]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>promptN04</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>gpt-4o</t>
         </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0.291</v>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[np.float64(0.305)]</t>
+          <t>[np.float64(0.291), np.float64(0.305)]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[0.341]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>[0.357, 0.341]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>promptN04</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>0.305</v>
+        <v>0.298</v>
       </c>
       <c r="G18" t="n">
-        <v>0.341</v>
+        <v>0.349</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -1064,18 +1064,18 @@
           <t>[0.413, 0.452]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>promptN04</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>gemini-2.0-flash-exp</t>
         </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0.3375</v>
@@ -1090,32 +1090,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[np.float64(0.313), np.float64(0.305)]</t>
+          <t>[np.float64(0.318), np.float64(0.346)]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[0.421, 0.429]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+          <t>[0.429, 0.444]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>promptN04</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>claude-3-5-sonnet-20241022</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>0.309</v>
+        <v>0.332</v>
       </c>
       <c r="G20" t="n">
-        <v>0.425</v>
+        <v>0.4365</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -1124,32 +1124,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[np.float64(0.318), np.float64(0.346)]</t>
+          <t>[np.float64(0.313), np.float64(0.305)]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0.429, 0.444]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>[0.421, 0.429]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>promptN04</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>0.332</v>
+        <v>0.309</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4365</v>
+        <v>0.425</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
@@ -1158,32 +1158,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[np.float64(0.398), np.float64(0.399)]</t>
+          <t>[np.float64(0.283), np.float64(0.309)]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[0.492, 0.488]</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+          <t>[0.341, 0.357]</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>promptN05</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>claude-3-5-sonnet-20241022</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>0.3985</v>
+        <v>0.296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.49</v>
+        <v>0.349</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
@@ -1192,32 +1192,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[np.float64(0.333), np.float64(0.358)]</t>
+          <t>[np.float64(0.358), np.float64(0.372)]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0.413, 0.429]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+          <t>[0.421, 0.437]</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>promptN05</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3455</v>
+        <v>0.365</v>
       </c>
       <c r="G23" t="n">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -1226,32 +1226,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[np.float64(0.283)]</t>
+          <t>[np.float64(0.333), np.float64(0.358)]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[0.341]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+          <t>[0.413, 0.429]</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>promptN05</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>0.283</v>
+        <v>0.3455</v>
       </c>
       <c r="G24" t="n">
-        <v>0.341</v>
+        <v>0.421</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
@@ -1260,32 +1260,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[np.float64(0.358), np.float64(0.372)]</t>
+          <t>[np.float64(0.273), np.float64(0.292)]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[0.421, 0.437]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+          <t>[0.357, 0.373]</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>promptN05</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F25" t="n">
+        <v>0.2825</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.365</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.429</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
@@ -1294,32 +1294,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[np.float64(0.273), np.float64(0.292)]</t>
+          <t>[np.float64(0.398), np.float64(0.399)]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[0.357, 0.373]</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+          <t>[0.484, 0.476]</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>promptN05</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>0.2825</v>
+        <v>0.3985</v>
       </c>
       <c r="G26" t="n">
-        <v>0.365</v>
+        <v>0.48</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
@@ -1328,32 +1328,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[np.float64(0.328), np.float64(0.333)]</t>
+          <t>[np.float64(0.255), np.float64(0.204)]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[0.452, 0.448]</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+          <t>[0.357, 0.294]</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>promptN06</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>claude-3-5-sonnet-20241022</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>0.3305</v>
+        <v>0.2295</v>
       </c>
       <c r="G27" t="n">
-        <v>0.45</v>
+        <v>0.3255</v>
       </c>
       <c r="H27" t="n">
         <v>6</v>
@@ -1362,32 +1362,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[np.float64(0.319), np.float64(0.356)]</t>
+          <t>[np.float64(0.328), np.float64(0.333)]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[0.468, 0.488]</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+          <t>[0.444, 0.444]</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>promptN06</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>0.3375</v>
+        <v>0.3305</v>
       </c>
       <c r="G28" t="n">
-        <v>0.478</v>
+        <v>0.444</v>
       </c>
       <c r="H28" t="n">
         <v>6</v>
@@ -1396,32 +1396,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[np.float64(0.255), np.float64(0.204)]</t>
+          <t>[np.float64(0.319), np.float64(0.356)]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[0.357, 0.294]</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+          <t>[0.468, 0.484]</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>promptN06</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>0.2295</v>
+        <v>0.3375</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3255</v>
+        <v>0.476</v>
       </c>
       <c r="H29" t="n">
         <v>6</v>
@@ -1430,32 +1430,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[np.float64(0.264), np.float64(0.28)]</t>
+          <t>[np.float64(0.312), np.float64(0.302)]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[0.373, 0.389]</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+          <t>[0.413, 0.389]</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>promptN06</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>0.272</v>
+        <v>0.307</v>
       </c>
       <c r="G30" t="n">
-        <v>0.381</v>
+        <v>0.401</v>
       </c>
       <c r="H30" t="n">
         <v>6</v>
@@ -1464,32 +1464,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[np.float64(0.312)]</t>
+          <t>[np.float64(0.264), np.float64(0.28)]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[0.413]</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>[0.373, 0.389]</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>promptN06</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F31" t="n">
-        <v>0.312</v>
+        <v>0.272</v>
       </c>
       <c r="G31" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
@@ -1498,32 +1498,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[np.float64(0.211), np.float64(0.179)]</t>
+          <t>[np.float64(0.293), np.float64(0.281)]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[0.328, 0.312]</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+          <t>[0.413, 0.381]</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>promptN07</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>0.195</v>
+        <v>0.287</v>
       </c>
       <c r="G32" t="n">
-        <v>0.32</v>
+        <v>0.397</v>
       </c>
       <c r="H32" t="n">
         <v>7</v>
@@ -1532,32 +1532,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[np.float64(0.293), np.float64(0.281)]</t>
+          <t>[np.float64(0.343), np.float64(0.353)]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[0.413, 0.381]</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>[0.468, 0.476]</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>promptN07</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F33" t="n">
-        <v>0.287</v>
+        <v>0.348</v>
       </c>
       <c r="G33" t="n">
-        <v>0.397</v>
+        <v>0.472</v>
       </c>
       <c r="H33" t="n">
         <v>7</v>
@@ -1566,32 +1566,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[np.float64(0.314)]</t>
+          <t>[np.float64(0.211), np.float64(0.179)]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[0.373]</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+          <t>[0.325, 0.31]</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>promptN07</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F34" t="n">
-        <v>0.314</v>
+        <v>0.195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.373</v>
+        <v>0.3175</v>
       </c>
       <c r="H34" t="n">
         <v>7</v>
@@ -1605,27 +1605,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[0.427, 0.431]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+          <t>[0.421, 0.421]</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>promptN07</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
-      </c>
-      <c r="E35" t="n">
-        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>0.3105</v>
       </c>
       <c r="G35" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="H35" t="n">
         <v>7</v>
@@ -1634,32 +1634,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[np.float64(0.343), np.float64(0.353)]</t>
+          <t>[np.float64(0.31), np.float64(0.314)]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[0.468, 0.48]</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+          <t>[0.357, 0.373]</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>promptN07</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>0.348</v>
+        <v>0.312</v>
       </c>
       <c r="G36" t="n">
-        <v>0.474</v>
+        <v>0.365</v>
       </c>
       <c r="H36" t="n">
         <v>7</v>
@@ -1668,32 +1668,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[np.float64(0.307)]</t>
+          <t>[np.float64(0.369), np.float64(0.346)]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0.381]</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+          <t>[0.452, 0.452]</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>promptN08</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
       </c>
       <c r="F37" t="n">
-        <v>0.307</v>
+        <v>0.3575</v>
       </c>
       <c r="G37" t="n">
-        <v>0.381</v>
+        <v>0.452</v>
       </c>
       <c r="H37" t="n">
         <v>8</v>
@@ -1702,32 +1702,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[np.float64(0.369), np.float64(0.346)]</t>
+          <t>[np.float64(0.164), np.float64(0.149)]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[0.463, 0.471]</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+          <t>[0.262, 0.302]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>promptN08</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>claude-3-5-sonnet-20241022</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>5</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F38" t="n">
-        <v>0.3575</v>
+        <v>0.1565</v>
       </c>
       <c r="G38" t="n">
-        <v>0.467</v>
+        <v>0.282</v>
       </c>
       <c r="H38" t="n">
         <v>8</v>
@@ -1736,32 +1736,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[np.float64(0.312), np.float64(0.301)]</t>
+          <t>[np.float64(0.253), np.float64(0.307)]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0.44, 0.416]</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+          <t>[0.341, 0.381]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>promptN08</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F39" t="n">
-        <v>0.3065</v>
+        <v>0.28</v>
       </c>
       <c r="G39" t="n">
-        <v>0.428</v>
+        <v>0.361</v>
       </c>
       <c r="H39" t="n">
         <v>8</v>
@@ -1770,32 +1770,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[np.float64(0.28), np.float64(0.282)]</t>
+          <t>[np.float64(0.312), np.float64(0.301)]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[0.389, 0.389]</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+          <t>[0.437, 0.413]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>promptN08</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F40" t="n">
-        <v>0.281</v>
+        <v>0.3065</v>
       </c>
       <c r="G40" t="n">
-        <v>0.389</v>
+        <v>0.425</v>
       </c>
       <c r="H40" t="n">
         <v>8</v>
@@ -1804,32 +1804,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[np.float64(0.164), np.float64(0.149)]</t>
+          <t>[np.float64(0.28), np.float64(0.282)]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[0.264, 0.302]</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>[0.389, 0.389]</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>promptN08</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F41" t="n">
-        <v>0.1565</v>
+        <v>0.281</v>
       </c>
       <c r="G41" t="n">
-        <v>0.283</v>
+        <v>0.389</v>
       </c>
       <c r="H41" t="n">
         <v>8</v>
@@ -1843,27 +1843,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[0.455, 0.45]</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>[0.444, 0.429]</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>promptN09</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
-      </c>
-      <c r="E42" t="n">
-        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>0.35</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4525</v>
+        <v>0.4365</v>
       </c>
       <c r="H42" t="n">
         <v>9</v>
@@ -1872,32 +1872,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[np.float64(0.168), np.float64(0.169)]</t>
+          <t>[np.float64(0.284), np.float64(0.289)]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[0.304, 0.31]</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>[0.405, 0.421]</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>promptN09</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1685</v>
+        <v>0.2865</v>
       </c>
       <c r="G43" t="n">
-        <v>0.307</v>
+        <v>0.413</v>
       </c>
       <c r="H43" t="n">
         <v>9</v>
@@ -1906,32 +1906,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[np.float64(0.284), np.float64(0.289)]</t>
+          <t>[np.float64(0.319), np.float64(0.329)]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[0.415, 0.427]</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>[0.389, 0.381]</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>promptN09</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>2</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F44" t="n">
-        <v>0.2865</v>
+        <v>0.324</v>
       </c>
       <c r="G44" t="n">
-        <v>0.421</v>
+        <v>0.385</v>
       </c>
       <c r="H44" t="n">
         <v>9</v>
@@ -1940,32 +1940,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[np.float64(0.319)]</t>
+          <t>[np.float64(0.263), np.float64(0.266)]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[0.389]</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>[0.397, 0.413]</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>promptN09</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F45" t="n">
-        <v>0.319</v>
+        <v>0.2645</v>
       </c>
       <c r="G45" t="n">
-        <v>0.389</v>
+        <v>0.405</v>
       </c>
       <c r="H45" t="n">
         <v>9</v>
@@ -1974,32 +1974,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[np.float64(0.263), np.float64(0.266)]</t>
+          <t>[np.float64(0.168), np.float64(0.169)]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[0.397, 0.413]</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>[0.302, 0.31]</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>promptN09</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F46" t="n">
-        <v>0.2645</v>
+        <v>0.1685</v>
       </c>
       <c r="G46" t="n">
-        <v>0.405</v>
+        <v>0.306</v>
       </c>
       <c r="H46" t="n">
         <v>9</v>
@@ -2008,32 +2008,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[np.float64(0.299), np.float64(0.269)]</t>
+          <t>[np.float64(0.269), np.float64(0.269)]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[0.4, 0.39]</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+          <t>[0.373, 0.381]</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>promptN10</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>3</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>0.284</v>
+        <v>0.269</v>
       </c>
       <c r="G47" t="n">
-        <v>0.395</v>
+        <v>0.377</v>
       </c>
       <c r="H47" t="n">
         <v>10</v>
@@ -2042,32 +2042,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[np.float64(0.128), np.float64(0.132)]</t>
+          <t>[np.float64(0.315), np.float64(0.33)]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[0.248, 0.254]</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+          <t>[0.413, 0.421]</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>promptN10</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
       </c>
       <c r="F48" t="n">
-        <v>0.13</v>
+        <v>0.3225</v>
       </c>
       <c r="G48" t="n">
-        <v>0.251</v>
+        <v>0.417</v>
       </c>
       <c r="H48" t="n">
         <v>10</v>
@@ -2076,32 +2076,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[np.float64(0.269), np.float64(0.269)]</t>
+          <t>[np.float64(0.251), np.float64(0.264)]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[0.373, 0.381]</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+          <t>[0.349, 0.349]</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>promptN10</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-001-finetuned</t>
+        </is>
       </c>
       <c r="F49" t="n">
-        <v>0.269</v>
+        <v>0.2575</v>
       </c>
       <c r="G49" t="n">
-        <v>0.377</v>
+        <v>0.349</v>
       </c>
       <c r="H49" t="n">
         <v>10</v>
@@ -2110,32 +2110,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[np.float64(0.315), np.float64(0.33)]</t>
+          <t>[np.float64(0.299), np.float64(0.269)]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[0.433, 0.434]</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+          <t>[0.397, 0.381]</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>promptN10</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>claude-3-5-sonnet-20241022</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F50" t="n">
-        <v>0.3225</v>
+        <v>0.284</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4335</v>
+        <v>0.389</v>
       </c>
       <c r="H50" t="n">
         <v>10</v>
@@ -2144,32 +2144,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[np.float64(0.251)]</t>
+          <t>[np.float64(0.128), np.float64(0.132)]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[0.349]</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+          <t>[0.246, 0.254]</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>promptN10</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>gemini-1.5-flash-001-tuning</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
       </c>
       <c r="F51" t="n">
-        <v>0.251</v>
+        <v>0.13</v>
       </c>
       <c r="G51" t="n">
-        <v>0.349</v>
+        <v>0.25</v>
       </c>
       <c r="H51" t="n">
         <v>10</v>
@@ -2178,32 +2178,32 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[np.float64(0.18), np.float64(0.105)]</t>
+          <t>[np.float64(0.241), np.float64(0.22)]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[0.25, 0.231]</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+          <t>[0.333, 0.317]</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>promptN11</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>100</v>
-      </c>
       <c r="F52" t="n">
-        <v>0.1425</v>
+        <v>0.2305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2405</v>
+        <v>0.325</v>
       </c>
       <c r="H52" t="n">
         <v>11</v>
@@ -2212,32 +2212,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[np.float64(0.26), np.float64(0.284)]</t>
+          <t>[np.float64(0.293), np.float64(0.26)]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[0.349, 0.365]</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+          <t>[0.413, 0.381]</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>promptN11</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
       </c>
       <c r="F53" t="n">
-        <v>0.272</v>
+        <v>0.2765</v>
       </c>
       <c r="G53" t="n">
-        <v>0.357</v>
+        <v>0.397</v>
       </c>
       <c r="H53" t="n">
         <v>11</v>
@@ -2246,32 +2246,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[np.float64(0.252), np.float64(0.256)]</t>
+          <t>[np.float64(0.246), np.float64(0.255)]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[0.365, 0.365]</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+          <t>[0.349, 0.357]</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>promptN11</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
       </c>
       <c r="F54" t="n">
-        <v>0.254</v>
+        <v>0.2505</v>
       </c>
       <c r="G54" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
       <c r="H54" t="n">
         <v>11</v>
@@ -2280,7 +2280,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[np.float64(0.241), np.float64(0.277)]</t>
+          <t>[np.float64(0.281), np.float64(0.276)]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2288,163 +2288,27 @@
           <t>[0.357, 0.365]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>promptN11</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
       <c r="F55" t="n">
-        <v>0.259</v>
+        <v>0.2785</v>
       </c>
       <c r="G55" t="n">
         <v>0.361</v>
       </c>
       <c r="H55" t="n">
         <v>11</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>[np.float64(0.281), np.float64(0.276)]</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>[0.357, 0.365]</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>promptN12</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>claude-3-5-sonnet-20241022</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.2785</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>[np.float64(0.293), np.float64(0.26)]</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>[0.413, 0.381]</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>promptN12</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.2765</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>[np.float64(0.22), np.float64(0.241)]</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>[0.317, 0.333]</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>promptN12</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.2305</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>[np.float64(0.246), np.float64(0.255)]</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>[0.349, 0.357]</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>promptN12</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>gemini-1.5-pro</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="H59" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
